--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2446859.306858697</v>
+        <v>2406896.023919501</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315892.6348881001</v>
+        <v>252381.9837937143</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478712</v>
+        <v>8362709.488478708</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7075024.697856596</v>
+        <v>7075024.697856595</v>
       </c>
     </row>
     <row r="11">
@@ -664,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.698677739041438</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>127.9331172856529</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.7554325077908</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50.29171516770224</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,19 +946,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.476017605668</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>26.54985421895028</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>118.6422217161165</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>63.9260459295682</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.28272660856686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>317.4092164500524</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>135.9035971193933</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>64.33626155989568</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>35.9764184812468</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>183.4401280146811</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>198.6185355174645</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>57.5013160490637</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>56.22893659596764</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>30.37004117374418</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>209.0555160862694</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>43.57168814342909</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>76.21767119408624</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1988,10 +1988,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>204.6044500078486</v>
       </c>
     </row>
     <row r="19">
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>132.289382529751</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>188.3415416299535</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>272.379678593561</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>266.6042573241236</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2171,10 +2171,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>110.9264804087664</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>78.40765649564756</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>80.79258128802718</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>116.0152310063692</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>213.4822541931389</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>218.195005969377</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0566183718975</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.608147832743841</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>35.97641848124702</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>298.5394252403696</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>211.682346599001</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
@@ -2575,7 +2575,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>28.58965000103588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>38.97663790996523</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -2687,7 +2687,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>181.8387605356544</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>119.8845921763328</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>28.36173061166535</v>
+        <v>136.2707863133638</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>19.04449791804963</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>120.764854730051</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>56.95166885946618</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>183.4401280146814</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.8657368868994</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>91.94671950156143</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>53.27515195945723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>116.4835634868744</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>119.7809561473941</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>182.8968133227839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>366.1937885622057</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>123.3277290573767</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>124.4199438792628</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>103.5924638492201</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.7617616219096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>99.66711168404524</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>156.4305710404617</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>47.38191319214038</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -3632,10 +3632,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>92.23683576037149</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>115.1779363007902</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.302520646659615</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>21.50807522921702</v>
+        <v>162.5504875945578</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>131.4829121221416</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.66757925108482</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>261.4362790293003</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>325.7283734334442</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>305.7663990283184</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>44.8437521879864</v>
+        <v>215.88210488916</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>73.90328094029422</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>9.461027631632808</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>718.7806050553886</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>718.7806050553886</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>475.3318284112885</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>718.7806050553886</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>718.7806050553886</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.8182272585117</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>268.8182272585117</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>268.8182272585117</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>955.2706123398873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>720.1185041081446</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>476.6697274640446</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X3" t="n">
-        <v>268.8182272585117</v>
+        <v>599.6796762832846</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.8182272585117</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>82.15084464790441</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
         <v>110.334904905842</v>
@@ -4655,10 +4655,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>561.6351817554748</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>561.6351817554748</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>318.1864051113748</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>670.7991829652278</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>670.7991829652278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.9160074365284</v>
+        <v>1311.479799318116</v>
       </c>
       <c r="C11" t="n">
-        <v>210.9160074365284</v>
+        <v>942.5172823777041</v>
       </c>
       <c r="D11" t="n">
-        <v>210.9160074365284</v>
+        <v>942.5172823777041</v>
       </c>
       <c r="E11" t="n">
-        <v>210.9160074365284</v>
+        <v>942.5172823777041</v>
       </c>
       <c r="F11" t="n">
-        <v>210.9160074365284</v>
+        <v>531.5313775880966</v>
       </c>
       <c r="G11" t="n">
         <v>210.9160074365284</v>
@@ -5041,19 +5041,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W11" t="n">
-        <v>1033.392538692174</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X11" t="n">
-        <v>659.9267804310946</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.7874484552829</v>
+        <v>1698.079639382237</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E12" t="n">
-        <v>261.5207718748949</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F12" t="n">
-        <v>114.9862139017798</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5126,46 +5126,46 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1122.364064795952</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827627</v>
+        <v>1645.559162314298</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>2057.764783833527</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.593068114834</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q13" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R13" t="n">
-        <v>450.1511924226979</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S13" t="n">
-        <v>234.1128111332513</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039365</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1909.511190548436</v>
+        <v>1155.594741992497</v>
       </c>
       <c r="C14" t="n">
-        <v>1540.548673608024</v>
+        <v>1155.594741992497</v>
       </c>
       <c r="D14" t="n">
-        <v>1182.282975001274</v>
+        <v>797.3290433857469</v>
       </c>
       <c r="E14" t="n">
-        <v>796.4947224030295</v>
+        <v>411.5407907875027</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>411.5407907875027</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>411.5407907875027</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>1967.593327971733</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V14" t="n">
-        <v>1909.511190548436</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W14" t="n">
-        <v>1909.511190548436</v>
+        <v>1545.734073968309</v>
       </c>
       <c r="X14" t="n">
-        <v>1909.511190548436</v>
+        <v>1545.734073968309</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.511190548436</v>
+        <v>1155.594741992497</v>
       </c>
     </row>
     <row r="15">
@@ -5336,16 +5336,16 @@
         <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>722.1845715439331</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G15" t="n">
         <v>221.5857653620315</v>
@@ -5357,16 +5357,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>103.5238282247106</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>339.8150790146477</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>718.9422221400409</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N15" t="n">
         <v>1557.865593173221</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5460,28 +5460,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2113.630833301597</v>
+        <v>1413.588688302086</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.630833301597</v>
+        <v>1413.588688302086</v>
       </c>
       <c r="D17" t="n">
-        <v>1755.365134694847</v>
+        <v>1413.588688302086</v>
       </c>
       <c r="E17" t="n">
         <v>1369.576882096602</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5542,25 +5542,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2113.630833301597</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U17" t="n">
-        <v>2113.630833301597</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V17" t="n">
-        <v>2113.630833301597</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W17" t="n">
-        <v>2113.630833301597</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="X17" t="n">
-        <v>2113.630833301597</v>
+        <v>1413.588688302086</v>
       </c>
       <c r="Y17" t="n">
-        <v>2113.630833301597</v>
+        <v>1413.588688302086</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5857653620315</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G18" t="n">
         <v>221.5857653620315</v>
@@ -5594,52 +5594,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K18" t="n">
-        <v>174.1773125904007</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L18" t="n">
-        <v>553.3044557157939</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M18" t="n">
-        <v>1047.707171111357</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N18" t="n">
-        <v>1570.902268629703</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F19" t="n">
-        <v>341.086543898599</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>341.086543898599</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
-        <v>182.4453914515037</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>487.9764913965093</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y19" t="n">
-        <v>487.9764913965093</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>764.0953090718475</v>
+        <v>897.0329007044804</v>
       </c>
       <c r="C20" t="n">
-        <v>764.0953090718475</v>
+        <v>897.0329007044804</v>
       </c>
       <c r="D20" t="n">
-        <v>764.0953090718475</v>
+        <v>897.0329007044804</v>
       </c>
       <c r="E20" t="n">
-        <v>378.3070564736033</v>
+        <v>897.0329007044804</v>
       </c>
       <c r="F20" t="n">
-        <v>378.3070564736033</v>
+        <v>486.0469959148729</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5785,19 +5785,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.224081305859</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V20" t="n">
-        <v>1386.161193962289</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W20" t="n">
-        <v>1033.392538692174</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="X20" t="n">
-        <v>764.0953090718475</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="Y20" t="n">
-        <v>764.0953090718475</v>
+        <v>897.0329007044804</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>779.8344674874215</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C21" t="n">
-        <v>779.8344674874215</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D21" t="n">
-        <v>630.9000578261703</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E21" t="n">
-        <v>471.6626028207148</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G21" t="n">
         <v>221.5857653620315</v>
@@ -5834,49 +5834,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>238.3436013083818</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>617.4707444337751</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1111.873459829338</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1567.327806199055</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>1979.533427718284</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2293.361711999592</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>948.0498045074896</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2440.987626628164</v>
+        <v>130.4284205002675</v>
       </c>
       <c r="C22" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>2294.097679130253</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>2124.997463953699</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>1966.356311506604</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>2440.987626628164</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X22" t="n">
-        <v>2440.987626628164</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y22" t="n">
-        <v>2440.987626628164</v>
+        <v>130.4284205002675</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1971.003775293977</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="C23" t="n">
-        <v>1971.003775293977</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="D23" t="n">
-        <v>1755.365134694847</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E23" t="n">
-        <v>1369.576882096602</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F23" t="n">
-        <v>958.5909773069948</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G23" t="n">
         <v>540.4033113775685</v>
@@ -5986,7 +5986,7 @@
         <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U23" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V23" t="n">
-        <v>1971.003775293977</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="W23" t="n">
-        <v>1971.003775293977</v>
+        <v>1537.541479346166</v>
       </c>
       <c r="X23" t="n">
-        <v>1971.003775293977</v>
+        <v>1317.142483417502</v>
       </c>
       <c r="Y23" t="n">
-        <v>1971.003775293977</v>
+        <v>927.0031514416903</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F24" t="n">
-        <v>114.9862139017798</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9862139017798</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K24" t="n">
         <v>174.1773125904007</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593125</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
@@ -6092,28 +6092,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601559</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641615</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436082</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K25" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6168,31 +6168,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>234.1128111332513</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>230.468217362803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>230.468217362803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V25" t="n">
-        <v>230.468217362803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W25" t="n">
-        <v>230.468217362803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X25" t="n">
-        <v>230.468217362803</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.468217362803</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2040.094374027286</v>
+        <v>1010.315274523233</v>
       </c>
       <c r="C26" t="n">
-        <v>1671.131857086875</v>
+        <v>1010.315274523233</v>
       </c>
       <c r="D26" t="n">
-        <v>1671.131857086875</v>
+        <v>1010.315274523233</v>
       </c>
       <c r="E26" t="n">
-        <v>1369.576882096602</v>
+        <v>1010.315274523233</v>
       </c>
       <c r="F26" t="n">
-        <v>958.5909773069948</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.094374027286</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.094374027286</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.094374027286</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="W26" t="n">
-        <v>2040.094374027286</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.094374027286</v>
+        <v>1787.054446563166</v>
       </c>
       <c r="Y26" t="n">
-        <v>2040.094374027286</v>
+        <v>1396.915114587354</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>747.0928654156372</v>
       </c>
       <c r="D27" t="n">
-        <v>547.7315422628061</v>
+        <v>598.158455754386</v>
       </c>
       <c r="E27" t="n">
-        <v>388.4940872573506</v>
+        <v>438.9210007489305</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>292.3864427758155</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>154.3565552249771</v>
       </c>
       <c r="H27" t="n">
         <v>114.9862139017798</v>
@@ -6311,10 +6311,10 @@
         <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6335,22 +6335,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
         <v>48.81975253256327</v>
@@ -6414,22 +6414,22 @@
         <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>240.9242726987314</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U28" t="n">
-        <v>240.9242726987314</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V28" t="n">
-        <v>240.9242726987314</v>
+        <v>169.9153001854247</v>
       </c>
       <c r="W28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>909.3658283179802</v>
+        <v>1409.052095095974</v>
       </c>
       <c r="C29" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D29" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E29" t="n">
-        <v>540.4033113775685</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H29" t="n">
         <v>210.9160074365284</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V29" t="n">
-        <v>2412.339413889108</v>
+        <v>1799.191427071786</v>
       </c>
       <c r="W29" t="n">
-        <v>2059.570758618994</v>
+        <v>1799.191427071786</v>
       </c>
       <c r="X29" t="n">
-        <v>1686.105000357914</v>
+        <v>1799.191427071786</v>
       </c>
       <c r="Y29" t="n">
-        <v>1295.965668382102</v>
+        <v>1409.052095095974</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1048.739754695577</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.934852213923</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
         <v>2283.899498973758</v>
@@ -6566,13 +6566,13 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2421.750760044275</v>
       </c>
       <c r="S30" t="n">
-        <v>2383.337730684675</v>
+        <v>2261.353028937149</v>
       </c>
       <c r="T30" t="n">
-        <v>2183.976407531844</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="U30" t="n">
         <v>2061.991705784318</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C31" t="n">
-        <v>1849.169209479969</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="D31" t="n">
-        <v>1849.169209479969</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="E31" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F31" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G31" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L31" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.500649370103</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>2034.462268080657</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y31" t="n">
-        <v>1849.169209479969</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>776.0479680797255</v>
+        <v>1466.005713320664</v>
       </c>
       <c r="C32" t="n">
-        <v>407.0854511393138</v>
+        <v>1097.043196380252</v>
       </c>
       <c r="D32" t="n">
-        <v>48.81975253256327</v>
+        <v>738.7774977735016</v>
       </c>
       <c r="E32" t="n">
-        <v>48.81975253256327</v>
+        <v>738.7774977735016</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>738.7774977735016</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6700,10 +6700,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6712,40 +6712,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2371.897027894855</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V32" t="n">
-        <v>2279.021553650853</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W32" t="n">
-        <v>1926.252898380739</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.787140119659</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y32" t="n">
-        <v>1162.647808143847</v>
+        <v>1466.005713320664</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>976.4219282721347</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>801.9688989910077</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>653.0344893297564</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>493.7970343243009</v>
       </c>
       <c r="F33" t="n">
-        <v>114.9862139017798</v>
+        <v>347.2624763511859</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9862139017798</v>
+        <v>209.2325888003475</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>102.6330373400958</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
@@ -6782,22 +6782,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1047.707171111357</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1570.902268629703</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1983.107890148932</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2296.936174430239</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6818,13 +6818,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1352.397564057157</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1144.637265292203</v>
       </c>
     </row>
     <row r="34">
@@ -6879,25 +6879,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>485.1527055686898</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V34" t="n">
-        <v>230.468217362803</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W34" t="n">
-        <v>230.468217362803</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X34" t="n">
         <v>230.468217362803</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1143.335233188595</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="C35" t="n">
-        <v>1143.335233188595</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="D35" t="n">
-        <v>1143.335233188595</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="E35" t="n">
-        <v>1143.335233188595</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="F35" t="n">
-        <v>958.5909773069948</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="G35" t="n">
         <v>540.4033113775685</v>
@@ -6934,19 +6934,19 @@
         <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>2259.7089786956</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>2259.7089786956</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W35" t="n">
-        <v>1906.940323425486</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X35" t="n">
-        <v>1533.474565164406</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="Y35" t="n">
-        <v>1143.335233188595</v>
+        <v>910.2960270969681</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439335</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628066</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015553</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E36" t="n">
-        <v>239.5596775960998</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
         <v>112.9860412505444</v>
@@ -7031,16 +7031,16 @@
         <v>1746.002248079784</v>
       </c>
       <c r="O36" t="n">
-        <v>2127.159342346857</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.593068114834</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
         <v>2222.939999577549</v>
@@ -7049,19 +7049,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640016</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.936391944899</v>
+        <v>458.9897048505185</v>
       </c>
       <c r="C37" t="n">
-        <v>198.936391944899</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256328</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256328</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7134,13 +7134,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>351.2209996437976</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>351.2209996437976</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1909.511190548436</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="C38" t="n">
-        <v>1540.548673608024</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="D38" t="n">
-        <v>1182.282975001274</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="E38" t="n">
-        <v>796.4947224030295</v>
+        <v>978.6671734375013</v>
       </c>
       <c r="F38" t="n">
-        <v>796.4947224030295</v>
+        <v>567.6812686478938</v>
       </c>
       <c r="G38" t="n">
-        <v>378.3070564736033</v>
+        <v>149.4936027184676</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256328</v>
@@ -7177,13 +7177,13 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S38" t="n">
-        <v>2282.976948809516</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T38" t="n">
-        <v>2282.976948809516</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U38" t="n">
-        <v>2282.976948809516</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V38" t="n">
-        <v>2282.976948809516</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="W38" t="n">
-        <v>2282.976948809516</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="X38" t="n">
-        <v>1909.511190548436</v>
+        <v>1364.455426035746</v>
       </c>
       <c r="Y38" t="n">
-        <v>1909.511190548436</v>
+        <v>1364.455426035746</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.0360717494664</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C39" t="n">
-        <v>755.5830424683394</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D39" t="n">
-        <v>606.6486328070881</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>447.4111778016326</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
-        <v>300.8766198285176</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>162.8467322776792</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
         <v>114.9862139017798</v>
@@ -7253,22 +7253,22 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
         <v>2283.899498973758</v>
@@ -7280,25 +7280,25 @@
         <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494433</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.24906426269</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X39" t="n">
-        <v>1306.011707534488</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y39" t="n">
-        <v>1098.251408769534</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G40" t="n">
         <v>48.81975253256328</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="V40" t="n">
-        <v>385.9536814748714</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="W40" t="n">
-        <v>385.9536814748714</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="X40" t="n">
-        <v>385.9536814748714</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1611023313413</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>747.269573414015</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C41" t="n">
-        <v>378.3070564736033</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D41" t="n">
-        <v>378.3070564736033</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3070564736033</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
         <v>145.966048569732</v>
@@ -7423,40 +7423,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T41" t="n">
-        <v>2152.282423226541</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U41" t="n">
-        <v>1898.502729238423</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="V41" t="n">
-        <v>1898.502729238423</v>
+        <v>2118.117333906737</v>
       </c>
       <c r="W41" t="n">
-        <v>1545.734073968309</v>
+        <v>1765.348678636623</v>
       </c>
       <c r="X41" t="n">
-        <v>1524.008745453948</v>
+        <v>1601.156266924949</v>
       </c>
       <c r="Y41" t="n">
-        <v>1133.869413478137</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L42" t="n">
         <v>540.2677802593125</v>
@@ -7517,25 +7517,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2423.364071498218</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T42" t="n">
-        <v>2224.002748345386</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U42" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1760.673136183358</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W42" t="n">
-        <v>1506.435779455157</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X42" t="n">
-        <v>1298.584279249624</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y42" t="n">
-        <v>1090.82398048467</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="C43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437976</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="X43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.2314487457803</v>
+        <v>376.5611201562124</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>726.6372179864279</v>
+        <v>998.0661903063665</v>
       </c>
       <c r="C44" t="n">
-        <v>357.6747010460162</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="D44" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="E44" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2187.207932640046</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V44" t="n">
-        <v>1856.145045296475</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W44" t="n">
-        <v>1503.376390026361</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X44" t="n">
-        <v>1503.376390026361</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y44" t="n">
-        <v>1113.23705805055</v>
+        <v>1327.084749330048</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7730,22 +7730,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>318.2287647883252</v>
+        <v>238.3436013083818</v>
       </c>
       <c r="L45" t="n">
-        <v>697.3559079137185</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.758623309281</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7766,13 +7766,13 @@
         <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.602240824373</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>376.3970879075655</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>351.4590821581505</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W46" t="n">
-        <v>276.8093034305806</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>376.3970879075655</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>376.3970879075655</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>447.9802256040016</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P39" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>233.1030882730268</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>324.4511150549137</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>96.59657282007953</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>21.7414833360076</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>141.3464342174087</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>131.270402617381</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>42.01973253337215</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>127.5738953841651</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.2509424210712</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,19 +23576,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>91.21612896867111</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>127.2750392816568</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>16.40434446178384</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>338.3586819288327</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>141.2007874275442</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23822,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.078245769455719</v>
       </c>
     </row>
     <row r="19">
@@ -23907,10 +23907,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>5.665792108581996</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
         <v>213.8779974765521</v>
@@ -23949,10 +23949,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>98.1814567066375</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>141.626110676571</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>103.1268433543454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>34.14273198461747</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>127.2750392816568</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>86.45423981060065</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>21.93994363196381</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>141.2007874275441</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>151.536094709092</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>39.62607740540685</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>221.8517127153094</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>182.6082348708478</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>83.39094483189223</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>195.1936991427104</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>66.55691803568394</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>43.62110001239893</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>166.6384061602582</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>299.3905278584696</v>
+        <v>191.4814721567711</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>38.02889906600392</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>105.1308741609317</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2951522391617</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>42.01973253337192</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>57.14005238323261</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24973,16 +24973,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>235.8055389685735</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.22964479606718</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25131,16 +25131,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>169.8037331605072</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>105.9286992416431</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>223.9792324189276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>47.8120007079263</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.74148333600715</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>127.2750392816568</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>63.65435724940774</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.82289173018521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>226.5253192175843</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.03529041277642</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>58.15164275350879</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>105.1308741609312</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>52.23127672399815</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25596,10 +25596,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
@@ -25608,13 +25608,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4071347423775</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25681,7 +25681,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>348.223025449252</v>
+        <v>207.1806130839112</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>101.3176750272836</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.74163377370351</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25842,16 +25842,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>24.8510176180813</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>57.00546823003634</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>48.91664259236455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>206.8512309729332</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26079,16 +26079,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>212.6197173962968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>216.2486277574043</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542284.786914993</v>
+        <v>542284.7869149931</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542284.7869149932</v>
+        <v>542284.7869149931</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542284.7869149931</v>
+        <v>542284.7869149932</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542284.7869149932</v>
+        <v>542284.7869149931</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542284.7869149931</v>
+        <v>542284.7869149933</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542284.7869149931</v>
+        <v>542284.786914993</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542284.7869149932</v>
+        <v>542284.7869149931</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="F2" t="n">
-        <v>406713.590186245</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="G2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="H2" t="n">
-        <v>406713.590186245</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="I2" t="n">
         <v>406713.5901862447</v>
       </c>
       <c r="J2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="K2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="L2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="M2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862446</v>
       </c>
       <c r="N2" t="n">
-        <v>406713.5901862449</v>
+        <v>406713.5901862447</v>
       </c>
       <c r="O2" t="n">
         <v>406713.5901862449</v>
       </c>
       <c r="P2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862448</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
+        <v>279125.0601321634</v>
+      </c>
+      <c r="D4" t="n">
         <v>279125.0601321633</v>
       </c>
-      <c r="D4" t="n">
-        <v>279125.0601321634</v>
-      </c>
       <c r="E4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="F4" t="n">
         <v>463.7092767442726</v>
       </c>
       <c r="G4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="H4" t="n">
         <v>463.7092767442726</v>
@@ -26456,7 +26456,7 @@
         <v>463.7092767442726</v>
       </c>
       <c r="O4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="P4" t="n">
         <v>463.7092767442726</v>
@@ -26490,7 +26490,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="J5" t="n">
         <v>44136.03802033842</v>
@@ -26502,13 +26502,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>207605.56697074</v>
+        <v>207605.5669707397</v>
       </c>
       <c r="C6" t="n">
-        <v>288374.9985022875</v>
+        <v>288374.9985022874</v>
       </c>
       <c r="D6" t="n">
         <v>288374.9985022875</v>
       </c>
       <c r="E6" t="n">
-        <v>-7321.45624361794</v>
+        <v>-14290.38081735026</v>
       </c>
       <c r="F6" t="n">
-        <v>362113.8428891623</v>
+        <v>355144.9183154298</v>
       </c>
       <c r="G6" t="n">
-        <v>362113.8428891622</v>
+        <v>355144.9183154297</v>
       </c>
       <c r="H6" t="n">
-        <v>362113.8428891623</v>
+        <v>355144.9183154298</v>
       </c>
       <c r="I6" t="n">
-        <v>362113.8428891621</v>
+        <v>355144.9183154298</v>
       </c>
       <c r="J6" t="n">
-        <v>299053.900290056</v>
+        <v>292084.9757163235</v>
       </c>
       <c r="K6" t="n">
-        <v>362113.8428891622</v>
+        <v>355144.9183154298</v>
       </c>
       <c r="L6" t="n">
-        <v>362113.8428891622</v>
+        <v>355144.9183154297</v>
       </c>
       <c r="M6" t="n">
-        <v>270099.5976080692</v>
+        <v>263130.6730343367</v>
       </c>
       <c r="N6" t="n">
-        <v>362113.8428891622</v>
+        <v>355144.9183154298</v>
       </c>
       <c r="O6" t="n">
-        <v>362113.8428891622</v>
+        <v>355144.9183154299</v>
       </c>
       <c r="P6" t="n">
-        <v>362113.8428891621</v>
+        <v>355144.9183154299</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="J4" t="n">
         <v>610.2469066570409</v>
@@ -26822,13 +26822,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
         <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>304.3913264529807</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,10 +27438,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>94.91917273398457</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>217.2427043419334</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>77.83986791782462</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>121.6785301387784</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>160.1841744027037</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>287.2759793369997</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>1.232481382647734</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>199.3915278620245</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>271.482174448785</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>152.5970991193535</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>81.52250697870511</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>168.8745412198571</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K12" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897584</v>
+        <v>74.36799000037922</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876457</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L13" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>56.00323343953796</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
@@ -32089,7 +32089,7 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>165.1032398336026</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>151.9348807866515</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
@@ -32563,7 +32563,7 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
-        <v>102.4964421275412</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>165.1032398336026</v>
@@ -32572,7 +32572,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>79.02157183357846</v>
       </c>
       <c r="R21" t="n">
         <v>43.0844371685896</v>
@@ -32794,13 +32794,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
-        <v>180.479234222958</v>
+        <v>167.310875176007</v>
       </c>
       <c r="O24" t="n">
         <v>165.1032398336026</v>
@@ -33025,19 +33025,19 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
-        <v>150.670744704085</v>
+        <v>25.44815259440708</v>
       </c>
       <c r="M27" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
-        <v>55.25664211328007</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O27" t="n">
         <v>165.1032398336026</v>
@@ -33271,13 +33271,13 @@
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O30" t="n">
-        <v>150.8918670652171</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P30" t="n">
         <v>132.5099057252086</v>
@@ -33502,7 +33502,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
@@ -33520,7 +33520,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>75.41100372181322</v>
       </c>
       <c r="R33" t="n">
         <v>43.0844371685896</v>
@@ -33751,13 +33751,13 @@
         <v>180.479234222958</v>
       </c>
       <c r="O36" t="n">
-        <v>133.7410910940511</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P36" t="n">
-        <v>132.5099057252086</v>
+        <v>31.05224333582913</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>43.0844371685896</v>
@@ -34143,10 +34143,10 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265077</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P41" t="n">
         <v>186.5027788167461</v>
@@ -34213,10 +34213,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571341</v>
       </c>
       <c r="M42" t="n">
         <v>175.8256523897584</v>
@@ -34450,10 +34450,10 @@
         <v>65.56102437472367</v>
       </c>
       <c r="K45" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>150.670744704085</v>
+        <v>72.68795260866824</v>
       </c>
       <c r="M45" t="n">
         <v>175.8256523897584</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>397.9390198283608</v>
       </c>
       <c r="N12" t="n">
-        <v>497.1177477436264</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>55.2566421132801</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35737,7 +35737,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>403.2009556189366</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>450.4971043877614</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>149.117085483406</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>515.3115374362272</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36679,13 +36679,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M27" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36919,16 +36919,16 @@
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
-        <v>402.1579418975022</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q30" t="n">
         <v>158.6748764185921</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>145.5065173716408</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>385.0071659263362</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>316.9982669508155</v>
+        <v>215.5406045614361</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37636,10 +37636,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P39" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
         <v>158.6748764185921</v>
@@ -37791,10 +37791,10 @@
         <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419009</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O41" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P41" t="n">
         <v>277.0684912329592</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>113.4554389912687</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>369.7883511807191</v>
       </c>
       <c r="M42" t="n">
         <v>499.39668221774</v>
@@ -38098,10 +38098,10 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
-        <v>207.3158823613948</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>382.95671022767</v>
+        <v>304.9739181322532</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
